--- a/data_year/zb/农业/农村居民家庭平均每人出售主要农产品.xlsx
+++ b/data_year/zb/农业/农村居民家庭平均每人出售主要农产品.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,364 +473,84 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5.593890873</v>
+        <v>14.71</v>
       </c>
       <c r="C2" t="n">
-        <v>46.43302395</v>
+        <v>65.93000000000001</v>
       </c>
       <c r="D2" t="n">
-        <v>18.43246483</v>
+        <v>17.46</v>
       </c>
       <c r="E2" t="n">
-        <v>2.732766754</v>
+        <v>4.07</v>
       </c>
       <c r="F2" t="n">
-        <v>264.7397278</v>
+        <v>460.4557555</v>
       </c>
       <c r="G2" t="n">
-        <v>132.0683739</v>
+        <v>168.26</v>
       </c>
       <c r="H2" t="n">
-        <v>0.468937175</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>7.045441225</v>
+        <v>19.91</v>
       </c>
       <c r="C3" t="n">
-        <v>48.20578131</v>
+        <v>60.82</v>
       </c>
       <c r="D3" t="n">
-        <v>18.31423649</v>
+        <v>16.88</v>
       </c>
       <c r="E3" t="n">
-        <v>2.418108699</v>
+        <v>4.52</v>
       </c>
       <c r="F3" t="n">
-        <v>268.0402086</v>
+        <v>481.4474395</v>
       </c>
       <c r="G3" t="n">
-        <v>132.9359339</v>
+        <v>174.52</v>
       </c>
       <c r="H3" t="n">
-        <v>0.439258111</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>6.942767171</v>
+        <v>22.98181418</v>
       </c>
       <c r="C4" t="n">
-        <v>49.05978898</v>
+        <v>71.03818133</v>
       </c>
       <c r="D4" t="n">
-        <v>18.46569083</v>
+        <v>18.52164571</v>
       </c>
       <c r="E4" t="n">
-        <v>2.585645107</v>
+        <v>4.804350345</v>
       </c>
       <c r="F4" t="n">
-        <v>281.1510399</v>
+        <v>529.7482357</v>
       </c>
       <c r="G4" t="n">
-        <v>143.7721373</v>
+        <v>164.1341904</v>
       </c>
       <c r="H4" t="n">
-        <v>0.642157246</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>2003年</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>16.77</v>
-      </c>
-      <c r="C5" t="n">
-        <v>48.83</v>
-      </c>
-      <c r="D5" t="n">
-        <v>19.22</v>
-      </c>
-      <c r="E5" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="F5" t="n">
-        <v>294.35</v>
-      </c>
-      <c r="G5" t="n">
-        <v>147.58</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.71</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>2004年</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>19.19121963</v>
-      </c>
-      <c r="C6" t="n">
-        <v>57.47977324</v>
-      </c>
-      <c r="D6" t="n">
-        <v>18.87543197</v>
-      </c>
-      <c r="E6" t="n">
-        <v>2.469799273</v>
-      </c>
-      <c r="F6" t="n">
-        <v>287.249511</v>
-      </c>
-      <c r="G6" t="n">
-        <v>151.5661574</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0.528345961</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>2005年</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>22.06026112</v>
-      </c>
-      <c r="C7" t="n">
-        <v>61.61760444</v>
-      </c>
-      <c r="D7" t="n">
-        <v>20.09139444</v>
-      </c>
-      <c r="E7" t="n">
-        <v>3.689165078</v>
-      </c>
-      <c r="F7" t="n">
-        <v>375.79</v>
-      </c>
-      <c r="G7" t="n">
-        <v>167.9285945</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0.685028928</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>2006年</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>23.79101389</v>
-      </c>
-      <c r="C8" t="n">
-        <v>59.49</v>
-      </c>
-      <c r="D8" t="n">
-        <v>17.79221336</v>
-      </c>
-      <c r="E8" t="n">
-        <v>3.828818165</v>
-      </c>
-      <c r="F8" t="n">
-        <v>394.6389897</v>
-      </c>
-      <c r="G8" t="n">
-        <v>172.978179</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0.430158938</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>2007年</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>24.92</v>
-      </c>
-      <c r="C9" t="n">
-        <v>66.79000000000001</v>
-      </c>
-      <c r="D9" t="n">
-        <v>17.24</v>
-      </c>
-      <c r="E9" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="F9" t="n">
-        <v>394.06</v>
-      </c>
-      <c r="G9" t="n">
-        <v>169.99</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0.39</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>2008年</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>20.68</v>
-      </c>
-      <c r="C10" t="n">
-        <v>64.94</v>
-      </c>
-      <c r="D10" t="n">
-        <v>15.69</v>
-      </c>
-      <c r="E10" t="n">
-        <v>3.83</v>
-      </c>
-      <c r="F10" t="n">
-        <v>444.447</v>
-      </c>
-      <c r="G10" t="n">
-        <v>170.83</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0.28</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>2009年</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>22.56</v>
-      </c>
-      <c r="C11" t="n">
-        <v>72.78</v>
-      </c>
-      <c r="D11" t="n">
-        <v>22.59</v>
-      </c>
-      <c r="E11" t="n">
-        <v>4.45</v>
-      </c>
-      <c r="F11" t="n">
-        <v>482.93</v>
-      </c>
-      <c r="G11" t="n">
-        <v>170.84</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0.17</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>2010年</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>14.71</v>
-      </c>
-      <c r="C12" t="n">
-        <v>65.93000000000001</v>
-      </c>
-      <c r="D12" t="n">
-        <v>17.46</v>
-      </c>
-      <c r="E12" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="F12" t="n">
-        <v>460.4557555</v>
-      </c>
-      <c r="G12" t="n">
-        <v>168.26</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>2011年</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>19.91</v>
-      </c>
-      <c r="C13" t="n">
-        <v>60.82</v>
-      </c>
-      <c r="D13" t="n">
-        <v>16.88</v>
-      </c>
-      <c r="E13" t="n">
-        <v>4.52</v>
-      </c>
-      <c r="F13" t="n">
-        <v>481.4474395</v>
-      </c>
-      <c r="G13" t="n">
-        <v>174.52</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0.11</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>22.98181418</v>
-      </c>
-      <c r="C14" t="n">
-        <v>71.03818133</v>
-      </c>
-      <c r="D14" t="n">
-        <v>18.52164571</v>
-      </c>
-      <c r="E14" t="n">
-        <v>4.804350345</v>
-      </c>
-      <c r="F14" t="n">
-        <v>529.7482357</v>
-      </c>
-      <c r="G14" t="n">
-        <v>164.1341904</v>
-      </c>
-      <c r="H14" t="n">
         <v>0.1</v>
       </c>
     </row>
